--- a/EvaluationResults/RQ2+RQ3/1-Simple-gpt4o-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/1-Simple-gpt4o-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E88FF-C5F6-E54D-A589-D4B361633A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEE7B3-070E-6C47-A722-4ABA6DA7659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o" sheetId="1" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -6094,13 +6094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -6114,8 +6107,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6124,7 +6124,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
